--- a/PRODUCTION/QUANTITÉS INTERACTIVES/Sandwhich Triangle interactif.xlsx
+++ b/PRODUCTION/QUANTITÉS INTERACTIVES/Sandwhich Triangle interactif.xlsx
@@ -960,7 +960,7 @@
   <dimension ref="B3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -991,7 +991,7 @@
     <row r="5" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B6" s="35">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>0</v>
@@ -1026,23 +1026,23 @@
       </c>
       <c r="E7" s="17" t="str">
         <f>B6*15&amp;("G")</f>
-        <v>360G</v>
+        <v>450G</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>B6*20&amp;("G")</f>
-        <v>480G</v>
+        <v>600G</v>
       </c>
       <c r="G7" s="18" t="str">
         <f>(B6*4)&amp;(" TRANCHES SOIT ")&amp;(B6*30)&amp;("G")</f>
-        <v>96 TRANCHES SOIT 720G</v>
+        <v>120 TRANCHES SOIT 900G</v>
       </c>
       <c r="H7" s="18" t="str">
         <f>(B6*2)&amp;(" TRANCHES SOIT ")&amp;(B6*60)&amp;("G")</f>
-        <v>48 TRANCHES SOIT 1440G</v>
+        <v>60 TRANCHES SOIT 1800G</v>
       </c>
       <c r="I7" s="18" t="str">
         <f>(B6*4)&amp;(" TRANCHES SOIT ")&amp;(B6*30)&amp;("G")</f>
-        <v>96 TRANCHES SOIT 720G</v>
+        <v>120 TRANCHES SOIT 900G</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="8" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B8" s="35">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>1</v>
@@ -1083,15 +1083,15 @@
       </c>
       <c r="E9" s="17" t="str">
         <f>B8*1&amp;(" OEUF DUR")</f>
-        <v>33 OEUF DUR</v>
+        <v>44 OEUF DUR</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>B8*30&amp;("G")</f>
-        <v>990G</v>
+        <v>1320G</v>
       </c>
       <c r="G9" s="18" t="str">
         <f>B8*10&amp;("G")</f>
-        <v>330G</v>
+        <v>440G</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B10" s="35">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>3</v>
@@ -1134,19 +1134,19 @@
       </c>
       <c r="E11" s="17" t="str">
         <f>(B10*4)&amp;(" TRANCHES CUITE SOIT ")&amp;(B10*30)&amp;("G")</f>
-        <v>128 TRANCHES CUITE SOIT 960G</v>
+        <v>160 TRANCHES CUITE SOIT 1200G</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>B10*20&amp;("G")</f>
-        <v>640G</v>
+        <v>800G</v>
       </c>
       <c r="G11" s="18" t="str">
         <f>B10*20&amp;("G")</f>
-        <v>640G</v>
+        <v>800G</v>
       </c>
       <c r="H11" s="18" t="str">
         <f>(B10*4)&amp;(" TRANCHES SOIT ")&amp;(B10*30)&amp;("G")</f>
-        <v>128 TRANCHES SOIT 960G</v>
+        <v>160 TRANCHES SOIT 1200G</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="12" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>2</v>
@@ -1194,34 +1194,34 @@
       </c>
       <c r="E13" s="17" t="str">
         <f>B12*60&amp;("G")</f>
-        <v>1320G</v>
+        <v>1440G</v>
       </c>
       <c r="F13" s="18" t="str">
         <f>B12*35&amp;("G")</f>
-        <v>770G</v>
+        <v>840G</v>
       </c>
       <c r="G13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>330G</v>
+        <v>360G</v>
       </c>
       <c r="H13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>330G</v>
+        <v>360G</v>
       </c>
       <c r="I13" s="18" t="str">
         <f>B12*2.5&amp;("G")</f>
-        <v>55G</v>
+        <v>60G</v>
       </c>
       <c r="J13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>330G</v>
+        <v>360G</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="35">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>4</v>
@@ -1262,41 +1262,41 @@
       </c>
       <c r="E15" s="8" t="str">
         <f>B14*8&amp;("G")</f>
-        <v>192G</v>
+        <v>240G</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>B14*10&amp;("G")</f>
-        <v>240G</v>
+        <v>300G</v>
       </c>
       <c r="G15" s="9" t="str">
         <f>B14*5&amp;("G")</f>
-        <v>120G</v>
+        <v>150G</v>
       </c>
       <c r="H15" s="9" t="str">
         <f>B14*2&amp;("G")</f>
-        <v>48G</v>
+        <v>60G</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>B14*10&amp;("G")</f>
-        <v>240G</v>
+        <v>300G</v>
       </c>
       <c r="J15" s="9" t="str">
         <f>B14*20&amp;("G")</f>
-        <v>480G</v>
+        <v>600G</v>
       </c>
       <c r="K15" s="9" t="str">
         <f>B14*80&amp;("G")</f>
-        <v>1920G</v>
+        <v>2400G</v>
       </c>
       <c r="L15" s="10" t="str">
         <f>B14*20&amp;("G")</f>
-        <v>480G</v>
+        <v>600G</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="24" t="str">
         <f>(INT(SUM(B6:B15))*2)&amp;(" TRANCHES (")&amp;(INT(INT(SUM(B6:B15))/7.5))&amp;(" PAINS &amp; ")&amp;(INT(MOD(INT(SUM(B6:B15))*2,15))&amp;(" TRANCHES)"))</f>
-        <v>270 TRANCHES (18 PAINS &amp; 0 TRANCHES)</v>
+        <v>336 TRANCHES (22 PAINS &amp; 6 TRANCHES)</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1434,7 +1434,7 @@
     <row r="5" spans="2:2" ht="15.75" thickBot="1">
       <c r="B5" s="23">
         <f ca="1">TODAY()</f>
-        <v>43607</v>
+        <v>43612</v>
       </c>
     </row>
     <row r="6" spans="2:2">

--- a/PRODUCTION/QUANTITÉS INTERACTIVES/Sandwhich Triangle interactif.xlsx
+++ b/PRODUCTION/QUANTITÉS INTERACTIVES/Sandwhich Triangle interactif.xlsx
@@ -960,7 +960,7 @@
   <dimension ref="B3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B16" sqref="B16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -991,7 +991,7 @@
     <row r="5" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B6" s="35">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>0</v>
@@ -1026,23 +1026,23 @@
       </c>
       <c r="E7" s="17" t="str">
         <f>B6*15&amp;("G")</f>
-        <v>450G</v>
+        <v>330G</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>B6*20&amp;("G")</f>
-        <v>600G</v>
+        <v>440G</v>
       </c>
       <c r="G7" s="18" t="str">
         <f>(B6*4)&amp;(" TRANCHES SOIT ")&amp;(B6*30)&amp;("G")</f>
-        <v>120 TRANCHES SOIT 900G</v>
+        <v>88 TRANCHES SOIT 660G</v>
       </c>
       <c r="H7" s="18" t="str">
         <f>(B6*2)&amp;(" TRANCHES SOIT ")&amp;(B6*60)&amp;("G")</f>
-        <v>60 TRANCHES SOIT 1800G</v>
+        <v>44 TRANCHES SOIT 1320G</v>
       </c>
       <c r="I7" s="18" t="str">
         <f>(B6*4)&amp;(" TRANCHES SOIT ")&amp;(B6*30)&amp;("G")</f>
-        <v>120 TRANCHES SOIT 900G</v>
+        <v>88 TRANCHES SOIT 660G</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="8" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B8" s="35">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>1</v>
@@ -1083,15 +1083,15 @@
       </c>
       <c r="E9" s="17" t="str">
         <f>B8*1&amp;(" OEUF DUR")</f>
-        <v>44 OEUF DUR</v>
+        <v>33 OEUF DUR</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>B8*30&amp;("G")</f>
-        <v>1320G</v>
+        <v>990G</v>
       </c>
       <c r="G9" s="18" t="str">
         <f>B8*10&amp;("G")</f>
-        <v>440G</v>
+        <v>330G</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B10" s="35">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>3</v>
@@ -1134,19 +1134,19 @@
       </c>
       <c r="E11" s="17" t="str">
         <f>(B10*4)&amp;(" TRANCHES CUITE SOIT ")&amp;(B10*30)&amp;("G")</f>
-        <v>160 TRANCHES CUITE SOIT 1200G</v>
+        <v>100 TRANCHES CUITE SOIT 750G</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>B10*20&amp;("G")</f>
-        <v>800G</v>
+        <v>500G</v>
       </c>
       <c r="G11" s="18" t="str">
         <f>B10*20&amp;("G")</f>
-        <v>800G</v>
+        <v>500G</v>
       </c>
       <c r="H11" s="18" t="str">
         <f>(B10*4)&amp;(" TRANCHES SOIT ")&amp;(B10*30)&amp;("G")</f>
-        <v>160 TRANCHES SOIT 1200G</v>
+        <v>100 TRANCHES SOIT 750G</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="12" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="35">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>2</v>
@@ -1194,34 +1194,34 @@
       </c>
       <c r="E13" s="17" t="str">
         <f>B12*60&amp;("G")</f>
-        <v>1440G</v>
+        <v>960G</v>
       </c>
       <c r="F13" s="18" t="str">
         <f>B12*35&amp;("G")</f>
-        <v>840G</v>
+        <v>560G</v>
       </c>
       <c r="G13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>360G</v>
+        <v>240G</v>
       </c>
       <c r="H13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>360G</v>
+        <v>240G</v>
       </c>
       <c r="I13" s="18" t="str">
         <f>B12*2.5&amp;("G")</f>
-        <v>60G</v>
+        <v>40G</v>
       </c>
       <c r="J13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>360G</v>
+        <v>240G</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>4</v>
@@ -1262,41 +1262,41 @@
       </c>
       <c r="E15" s="8" t="str">
         <f>B14*8&amp;("G")</f>
-        <v>240G</v>
+        <v>160G</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>B14*10&amp;("G")</f>
-        <v>300G</v>
+        <v>200G</v>
       </c>
       <c r="G15" s="9" t="str">
         <f>B14*5&amp;("G")</f>
-        <v>150G</v>
+        <v>100G</v>
       </c>
       <c r="H15" s="9" t="str">
         <f>B14*2&amp;("G")</f>
-        <v>60G</v>
+        <v>40G</v>
       </c>
       <c r="I15" s="9" t="str">
         <f>B14*10&amp;("G")</f>
-        <v>300G</v>
+        <v>200G</v>
       </c>
       <c r="J15" s="9" t="str">
         <f>B14*20&amp;("G")</f>
-        <v>600G</v>
+        <v>400G</v>
       </c>
       <c r="K15" s="9" t="str">
         <f>B14*80&amp;("G")</f>
-        <v>2400G</v>
+        <v>1600G</v>
       </c>
       <c r="L15" s="10" t="str">
         <f>B14*20&amp;("G")</f>
-        <v>600G</v>
+        <v>400G</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="24" t="str">
         <f>(INT(SUM(B6:B15))*2)&amp;(" TRANCHES (")&amp;(INT(INT(SUM(B6:B15))/7.5))&amp;(" PAINS &amp; ")&amp;(INT(MOD(INT(SUM(B6:B15))*2,15))&amp;(" TRANCHES)"))</f>
-        <v>336 TRANCHES (22 PAINS &amp; 6 TRANCHES)</v>
+        <v>232 TRANCHES (15 PAINS &amp; 7 TRANCHES)</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1434,7 +1434,7 @@
     <row r="5" spans="2:2" ht="15.75" thickBot="1">
       <c r="B5" s="23">
         <f ca="1">TODAY()</f>
-        <v>43612</v>
+        <v>43622</v>
       </c>
     </row>
     <row r="6" spans="2:2">

--- a/PRODUCTION/QUANTITÉS INTERACTIVES/Sandwhich Triangle interactif.xlsx
+++ b/PRODUCTION/QUANTITÉS INTERACTIVES/Sandwhich Triangle interactif.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Le Classique</t>
   </si>
@@ -114,15 +114,6 @@
   </si>
   <si>
     <t>LISTE DES INGRÉDIENTS POUR UN NOMBRE DE SANDWICH PERSONNALISÉ</t>
-  </si>
-  <si>
-    <t>calibre gros</t>
-  </si>
-  <si>
-    <t>calibre X-gros</t>
-  </si>
-  <si>
-    <t>différence</t>
   </si>
 </sst>
 </file>
@@ -957,10 +948,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:L23"/>
+  <dimension ref="B3:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:L16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -991,7 +982,7 @@
     <row r="5" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B6" s="35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>0</v>
@@ -1026,23 +1017,23 @@
       </c>
       <c r="E7" s="17" t="str">
         <f>B6*15&amp;("G")</f>
-        <v>330G</v>
+        <v>300G</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>B6*20&amp;("G")</f>
-        <v>440G</v>
+        <v>400G</v>
       </c>
       <c r="G7" s="18" t="str">
         <f>(B6*4)&amp;(" TRANCHES SOIT ")&amp;(B6*30)&amp;("G")</f>
-        <v>88 TRANCHES SOIT 660G</v>
+        <v>80 TRANCHES SOIT 600G</v>
       </c>
       <c r="H7" s="18" t="str">
         <f>(B6*2)&amp;(" TRANCHES SOIT ")&amp;(B6*60)&amp;("G")</f>
-        <v>44 TRANCHES SOIT 1320G</v>
+        <v>40 TRANCHES SOIT 1200G</v>
       </c>
       <c r="I7" s="18" t="str">
         <f>(B6*4)&amp;(" TRANCHES SOIT ")&amp;(B6*30)&amp;("G")</f>
-        <v>88 TRANCHES SOIT 660G</v>
+        <v>80 TRANCHES SOIT 600G</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -1101,7 +1092,7 @@
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B10" s="35">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>3</v>
@@ -1134,19 +1125,19 @@
       </c>
       <c r="E11" s="17" t="str">
         <f>(B10*4)&amp;(" TRANCHES CUITE SOIT ")&amp;(B10*30)&amp;("G")</f>
-        <v>100 TRANCHES CUITE SOIT 750G</v>
+        <v>120 TRANCHES CUITE SOIT 900G</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>B10*20&amp;("G")</f>
-        <v>500G</v>
+        <v>600G</v>
       </c>
       <c r="G11" s="18" t="str">
         <f>B10*20&amp;("G")</f>
-        <v>500G</v>
+        <v>600G</v>
       </c>
       <c r="H11" s="18" t="str">
         <f>(B10*4)&amp;(" TRANCHES SOIT ")&amp;(B10*30)&amp;("G")</f>
-        <v>100 TRANCHES SOIT 750G</v>
+        <v>120 TRANCHES SOIT 900G</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1155,7 +1146,7 @@
     </row>
     <row r="12" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>2</v>
@@ -1194,27 +1185,27 @@
       </c>
       <c r="E13" s="17" t="str">
         <f>B12*60&amp;("G")</f>
-        <v>960G</v>
+        <v>720G</v>
       </c>
       <c r="F13" s="18" t="str">
         <f>B12*35&amp;("G")</f>
-        <v>560G</v>
+        <v>420G</v>
       </c>
       <c r="G13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>240G</v>
+        <v>180G</v>
       </c>
       <c r="H13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>240G</v>
+        <v>180G</v>
       </c>
       <c r="I13" s="18" t="str">
         <f>B12*2.5&amp;("G")</f>
-        <v>40G</v>
+        <v>30G</v>
       </c>
       <c r="J13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>240G</v>
+        <v>180G</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="19"/>
@@ -1296,7 +1287,7 @@
     <row r="16" spans="2:12" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="24" t="str">
         <f>(INT(SUM(B6:B15))*2)&amp;(" TRANCHES (")&amp;(INT(INT(SUM(B6:B15))/7.5))&amp;(" PAINS &amp; ")&amp;(INT(MOD(INT(SUM(B6:B15))*2,15))&amp;(" TRANCHES)"))</f>
-        <v>232 TRANCHES (15 PAINS &amp; 7 TRANCHES)</v>
+        <v>230 TRANCHES (15 PAINS &amp; 5 TRANCHES)</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1308,97 +1299,6 @@
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="26"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1">
-        <v>120</v>
-      </c>
-      <c r="E21" s="1">
-        <v>180</v>
-      </c>
-      <c r="F21" s="1">
-        <v>240</v>
-      </c>
-      <c r="G21" s="1">
-        <v>300</v>
-      </c>
-      <c r="H21" s="1">
-        <v>360</v>
-      </c>
-      <c r="I21" s="1">
-        <v>420</v>
-      </c>
-      <c r="J21" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="1">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1">
-        <v>140</v>
-      </c>
-      <c r="E22" s="1">
-        <v>210</v>
-      </c>
-      <c r="F22" s="1">
-        <v>280</v>
-      </c>
-      <c r="G22" s="1">
-        <v>350</v>
-      </c>
-      <c r="H22" s="1">
-        <v>420</v>
-      </c>
-      <c r="I22" s="1">
-        <v>490</v>
-      </c>
-      <c r="J22" s="1">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1">
-        <f>D22-D21</f>
-        <v>20</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" ref="E23:G23" si="0">E22-E21</f>
-        <v>30</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ref="H23" si="1">H22-H21</f>
-        <v>60</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" ref="I23" si="2">I22-I21</f>
-        <v>70</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" ref="J23" si="3">J22-J21</f>
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1434,7 +1334,7 @@
     <row r="5" spans="2:2" ht="15.75" thickBot="1">
       <c r="B5" s="23">
         <f ca="1">TODAY()</f>
-        <v>43622</v>
+        <v>43665</v>
       </c>
     </row>
     <row r="6" spans="2:2">

--- a/PRODUCTION/QUANTITÉS INTERACTIVES/Sandwhich Triangle interactif.xlsx
+++ b/PRODUCTION/QUANTITÉS INTERACTIVES/Sandwhich Triangle interactif.xlsx
@@ -951,7 +951,7 @@
   <dimension ref="B3:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="8" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B8" s="35">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>1</v>
@@ -1074,15 +1074,15 @@
       </c>
       <c r="E9" s="17" t="str">
         <f>B8*1&amp;(" OEUF DUR")</f>
-        <v>33 OEUF DUR</v>
+        <v>10 OEUF DUR</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>B8*30&amp;("G")</f>
-        <v>990G</v>
+        <v>300G</v>
       </c>
       <c r="G9" s="18" t="str">
         <f>B8*10&amp;("G")</f>
-        <v>330G</v>
+        <v>100G</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B10" s="35">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>3</v>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="E11" s="17" t="str">
         <f>(B10*4)&amp;(" TRANCHES CUITE SOIT ")&amp;(B10*30)&amp;("G")</f>
-        <v>120 TRANCHES CUITE SOIT 900G</v>
+        <v>100 TRANCHES CUITE SOIT 750G</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>B10*20&amp;("G")</f>
-        <v>600G</v>
+        <v>500G</v>
       </c>
       <c r="G11" s="18" t="str">
         <f>B10*20&amp;("G")</f>
-        <v>600G</v>
+        <v>500G</v>
       </c>
       <c r="H11" s="18" t="str">
         <f>(B10*4)&amp;(" TRANCHES SOIT ")&amp;(B10*30)&amp;("G")</f>
-        <v>120 TRANCHES SOIT 900G</v>
+        <v>100 TRANCHES SOIT 750G</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="12" spans="2:12" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="35">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>2</v>
@@ -1185,27 +1185,27 @@
       </c>
       <c r="E13" s="17" t="str">
         <f>B12*60&amp;("G")</f>
-        <v>720G</v>
+        <v>1200G</v>
       </c>
       <c r="F13" s="18" t="str">
         <f>B12*35&amp;("G")</f>
-        <v>420G</v>
+        <v>700G</v>
       </c>
       <c r="G13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>180G</v>
+        <v>300G</v>
       </c>
       <c r="H13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>180G</v>
+        <v>300G</v>
       </c>
       <c r="I13" s="18" t="str">
         <f>B12*2.5&amp;("G")</f>
-        <v>30G</v>
+        <v>50G</v>
       </c>
       <c r="J13" s="18" t="str">
         <f>B12*15&amp;("G")</f>
-        <v>180G</v>
+        <v>300G</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="19"/>
@@ -1287,7 +1287,7 @@
     <row r="16" spans="2:12" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="24" t="str">
         <f>(INT(SUM(B6:B15))*2)&amp;(" TRANCHES (")&amp;(INT(INT(SUM(B6:B15))/7.5))&amp;(" PAINS &amp; ")&amp;(INT(MOD(INT(SUM(B6:B15))*2,15))&amp;(" TRANCHES)"))</f>
-        <v>230 TRANCHES (15 PAINS &amp; 5 TRANCHES)</v>
+        <v>190 TRANCHES (12 PAINS &amp; 10 TRANCHES)</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1334,7 +1334,7 @@
     <row r="5" spans="2:2" ht="15.75" thickBot="1">
       <c r="B5" s="23">
         <f ca="1">TODAY()</f>
-        <v>43665</v>
+        <v>43818</v>
       </c>
     </row>
     <row r="6" spans="2:2">
